--- a/ToDo Simulator.xlsx
+++ b/ToDo Simulator.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22440" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -278,7 +279,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -556,31 +557,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D73"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -596,7 +596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -604,7 +604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -612,7 +612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -620,27 +620,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -648,7 +648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -656,7 +656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -664,37 +664,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -702,7 +702,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>31</v>
       </c>
@@ -710,7 +710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>32</v>
       </c>
@@ -718,12 +718,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -731,7 +731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -739,12 +739,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>42</v>
       </c>
@@ -752,7 +752,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>44</v>
       </c>
@@ -760,7 +760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>46</v>
       </c>
@@ -768,7 +768,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>48</v>
       </c>
@@ -776,42 +776,43 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>28</v>
       </c>
@@ -819,7 +820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>60</v>
       </c>
@@ -827,17 +828,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>58</v>
       </c>

--- a/ToDo Simulator.xlsx
+++ b/ToDo Simulator.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>TODO</t>
   </si>
@@ -43,45 +43,12 @@
     <t>Er is een maximum aan het aantal abonnementhouders omdat maar een beperkt deel van de garage gereserveerd wordt voor deze klanten. Er is dus ook een wachtlijst voor abonnementen.</t>
   </si>
   <si>
-    <t>Drukte donderdag en weekend</t>
-  </si>
-  <si>
-    <t>Naast de parkeergarage staat het beroemde theater “het concertgebouw”. Dit theater biedt plaats aan 1000 bezoekers en elk weekend zijn er voorstellingen op vrijdag en zaterdagavond en zondagmiddag die altijd uitverkocht zijn. Dit zorgt voor extra drukte in de parkeergarage. Verder zijn er op donderdagavond koopavonden die ook voor extra klanten zorgen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max lengte rij </t>
-  </si>
-  <si>
-    <t>Op sommige momenten is de rij voor de garage zo lang dat potentiele klanten doorrijden en op zoek gaan naar een andere parkeerplek.</t>
-  </si>
-  <si>
     <t>1. De Organisatie</t>
   </si>
   <si>
-    <t>veranderen maxAantal abonnees</t>
-  </si>
-  <si>
-    <t>veranderen maxAantal reserveringen</t>
-  </si>
-  <si>
-    <t>aantal gemiste klanten in ManagerView</t>
-  </si>
-  <si>
     <t>ManagerView</t>
   </si>
   <si>
-    <t>QueViews</t>
-  </si>
-  <si>
-    <t>Ook moet je de informatie over de queues weergeven. Zorg er voor dat je in alle views duidelijk kunt zien welk soort auto’s weeggeven worden.</t>
-  </si>
-  <si>
-    <t>Verbeteren van de simulatie</t>
-  </si>
-  <si>
-    <t>Als je een view hebt gemaakt die de lengte van de rijen weergeeft zal je waarschijnlijk hebben gezien dat er geen rijen ontstaan. Dit is niet zoals het in werkelijkheid is. Pas het simulatie proces aan zodat het aantal auto’s dat arriveert per minuut meer lijkt op de werkelijkheid. Houd hierbij rekening met de gegevens die in de casus omschrijving genoemd worden. Pas tevens de simulatie zodanig aan dat er rekening wordt gehouden met het feit dat potentiele klanten mogelijk doorrijden als de rij te lang is. Dit gegeven moet ook in de statistieken worden opgenomen. Maak ook een view waarop de instellingen van de simulator kunnen worden beheerd.</t>
-  </si>
-  <si>
     <t>Een klasse reserveringen</t>
   </si>
   <si>
@@ -115,19 +82,7 @@
     <t>reservering</t>
   </si>
   <si>
-    <t>abonnees</t>
-  </si>
-  <si>
-    <t>normale Klanten</t>
-  </si>
-  <si>
     <t>reserveringen komen vaak gelijk tijdens theater</t>
-  </si>
-  <si>
-    <t>abonnees voor mensen die in de buurt werken, die elke dag komen dus constant.</t>
-  </si>
-  <si>
-    <t>klanten komen vaak tijdens theater en donderdag avond.</t>
   </si>
   <si>
     <t>tijdens spitsuur? Voor werk na werk?</t>
@@ -212,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,12 +178,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -269,14 +218,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -559,7 +505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -574,7 +522,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -604,245 +552,195 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="18" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="19" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="23" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B46" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="D51" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    </row>
+    <row r="52" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="64" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B55" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>58</v>
-      </c>
-    </row>
+    <row r="72" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
